--- a/test data.xlsx
+++ b/test data.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" si="1">COUNTA(D3:O3)/2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -591,14 +591,6 @@
       <c r="K3">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M31" si="5">IF(L3="", "", 1)</f>
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O31" si="6">IF(N3="", "", 1)</f>
-        <v/>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -610,7 +602,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -644,12 +636,8 @@
         <v>26</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" ref="M3:M31" si="5">IF(L4="", "", 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -661,7 +649,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -697,10 +685,6 @@
       <c r="M5">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -753,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O3:O31" si="6">IF(N6="", "", 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -766,7 +750,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -781,22 +765,6 @@
       <c r="G7">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -916,7 +884,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -945,14 +913,6 @@
       <c r="K10">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -964,7 +924,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -986,18 +946,6 @@
       <c r="I11">
         <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -1009,7 +957,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1031,18 +979,6 @@
       <c r="I12">
         <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="K12" t="str">
-        <f>IF(J12="", "", 1)</f>
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1054,7 +990,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1083,14 +1019,6 @@
       <c r="K13">
         <f t="shared" ref="K13:K31" si="7">IF(J13="", "", 1)</f>
         <v>1</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1102,7 +1030,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -1131,14 +1059,6 @@
       <c r="K14">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -1150,7 +1070,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1172,18 +1092,6 @@
       <c r="I15">
         <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -1195,7 +1103,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1225,14 +1133,6 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AC16" t="s">
         <v>31</v>
       </c>
@@ -1240,7 +1140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1249,7 +1149,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -1279,16 +1179,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1297,7 +1189,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1327,16 +1219,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1345,7 +1229,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1368,20 +1252,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1390,7 +1262,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1413,20 +1285,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1435,7 +1295,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1465,16 +1325,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1483,7 +1335,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1506,20 +1358,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1528,7 +1368,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1551,20 +1391,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1573,7 +1401,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1589,24 +1417,8 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1615,7 +1427,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1631,24 +1443,8 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1657,7 +1453,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1687,16 +1483,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1705,7 +1493,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -1742,12 +1530,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O27" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1756,7 +1540,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1786,16 +1570,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1804,7 +1580,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1841,12 +1617,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1855,7 +1627,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1864,28 +1636,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1894,7 +1646,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -1930,10 +1682,6 @@
       <c r="M31">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
     </row>
   </sheetData>
